--- a/buglists/buglist-totaal.xlsx
+++ b/buglists/buglist-totaal.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="92">
   <si>
     <t>naam reviewer</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>Lucy is opgeleid tot SO</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
   </si>
 </sst>
 </file>
@@ -1785,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1835,6 +1838,9 @@
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
       <c r="D3" s="6">
         <v>1</v>
       </c>
@@ -1849,6 +1855,9 @@
       <c r="A4" t="s">
         <v>66</v>
       </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
       <c r="D4">
         <v>1</v>
       </c>
@@ -1863,6 +1872,9 @@
       <c r="A5" t="s">
         <v>68</v>
       </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
       <c r="D5" s="9">
         <v>1</v>
       </c>
@@ -1878,7 +1890,7 @@
         <v>19</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>18</v>
@@ -1891,8 +1903,11 @@
       <c r="A7" t="s">
         <v>34</v>
       </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>18</v>
@@ -1905,8 +1920,11 @@
       <c r="A8" t="s">
         <v>44</v>
       </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>18</v>
@@ -1919,8 +1937,11 @@
       <c r="A9" t="s">
         <v>66</v>
       </c>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>18</v>
@@ -1934,7 +1955,7 @@
         <v>66</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>18</v>
@@ -1948,7 +1969,7 @@
         <v>68</v>
       </c>
       <c r="D11" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>69</v>
@@ -1961,8 +1982,11 @@
       <c r="A12" t="s">
         <v>81</v>
       </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>18</v>
@@ -1975,6 +1999,9 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
       <c r="D13">
         <v>3</v>
       </c>
@@ -2003,6 +2030,9 @@
       <c r="A15" t="s">
         <v>19</v>
       </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
       <c r="D15">
         <v>4</v>
       </c>
@@ -2031,6 +2061,9 @@
       <c r="A17" t="s">
         <v>68</v>
       </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
       <c r="D17" s="9">
         <v>4</v>
       </c>
@@ -2045,6 +2078,9 @@
       <c r="A18" t="s">
         <v>68</v>
       </c>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
       <c r="D18">
         <v>4</v>
       </c>
@@ -2059,6 +2095,9 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
       <c r="D19">
         <v>5</v>
       </c>
@@ -2129,6 +2168,9 @@
       <c r="A24" t="s">
         <v>81</v>
       </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
       <c r="D24">
         <v>5</v>
       </c>
@@ -2157,6 +2199,9 @@
       <c r="A26" t="s">
         <v>44</v>
       </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
       <c r="D26">
         <v>6</v>
       </c>
@@ -2171,6 +2216,9 @@
       <c r="A27" t="s">
         <v>81</v>
       </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
       <c r="D27">
         <v>6</v>
       </c>
@@ -2241,6 +2289,9 @@
       <c r="A32" t="s">
         <v>44</v>
       </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
       <c r="D32">
         <v>9</v>
       </c>
@@ -2255,6 +2306,9 @@
       <c r="A33" t="s">
         <v>81</v>
       </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
       <c r="D33">
         <v>9</v>
       </c>
@@ -2283,6 +2337,9 @@
       <c r="A35" t="s">
         <v>19</v>
       </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
       <c r="D35">
         <v>11</v>
       </c>
@@ -2409,6 +2466,9 @@
       <c r="A44" t="s">
         <v>19</v>
       </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
       <c r="D44">
         <v>23</v>
       </c>
@@ -2423,6 +2483,9 @@
       <c r="A45" t="s">
         <v>34</v>
       </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
       <c r="D45">
         <v>23</v>
       </c>
@@ -2451,6 +2514,9 @@
       <c r="A47" t="s">
         <v>66</v>
       </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
       <c r="D47">
         <v>23</v>
       </c>
@@ -2465,6 +2531,9 @@
       <c r="A48" t="s">
         <v>68</v>
       </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
       <c r="D48" s="9">
         <v>23</v>
       </c>
@@ -2479,6 +2548,9 @@
       <c r="A49" t="s">
         <v>81</v>
       </c>
+      <c r="B49" t="s">
+        <v>91</v>
+      </c>
       <c r="D49">
         <v>23</v>
       </c>
@@ -2521,6 +2593,9 @@
       <c r="A52" t="s">
         <v>19</v>
       </c>
+      <c r="B52" t="s">
+        <v>91</v>
+      </c>
       <c r="D52">
         <v>27</v>
       </c>
@@ -2534,6 +2609,9 @@
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>19</v>
+      </c>
+      <c r="B53" t="s">
+        <v>91</v>
       </c>
       <c r="D53">
         <v>27</v>
@@ -2549,6 +2627,9 @@
       <c r="A54" t="s">
         <v>34</v>
       </c>
+      <c r="B54" t="s">
+        <v>91</v>
+      </c>
       <c r="D54">
         <v>27</v>
       </c>
@@ -2562,6 +2643,9 @@
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>44</v>
+      </c>
+      <c r="B55" t="s">
+        <v>91</v>
       </c>
       <c r="D55">
         <v>27</v>
@@ -2577,6 +2661,9 @@
       <c r="A56" t="s">
         <v>66</v>
       </c>
+      <c r="B56" t="s">
+        <v>91</v>
+      </c>
       <c r="D56">
         <v>27</v>
       </c>
@@ -2605,6 +2692,9 @@
       <c r="A58" t="s">
         <v>19</v>
       </c>
+      <c r="B58" t="s">
+        <v>91</v>
+      </c>
       <c r="D58">
         <v>31</v>
       </c>
@@ -2619,6 +2709,9 @@
       <c r="A59" t="s">
         <v>34</v>
       </c>
+      <c r="B59" t="s">
+        <v>91</v>
+      </c>
       <c r="D59">
         <v>31</v>
       </c>
@@ -2632,6 +2725,9 @@
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>44</v>
+      </c>
+      <c r="B60" t="s">
+        <v>91</v>
       </c>
       <c r="D60">
         <v>31</v>
@@ -2661,6 +2757,9 @@
       <c r="A62" t="s">
         <v>81</v>
       </c>
+      <c r="B62" t="s">
+        <v>91</v>
+      </c>
       <c r="D62">
         <v>31</v>
       </c>
@@ -2703,6 +2802,9 @@
       <c r="A65" t="s">
         <v>68</v>
       </c>
+      <c r="B65" t="s">
+        <v>91</v>
+      </c>
       <c r="D65" s="9">
         <v>32</v>
       </c>
@@ -2786,6 +2888,9 @@
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>44</v>
+      </c>
+      <c r="B71" t="s">
+        <v>91</v>
       </c>
       <c r="D71">
         <v>43</v>
@@ -2815,6 +2920,9 @@
       <c r="A73" t="s">
         <v>81</v>
       </c>
+      <c r="B73" t="s">
+        <v>91</v>
+      </c>
       <c r="D73">
         <v>43</v>
       </c>
@@ -2829,6 +2937,9 @@
       <c r="A74" t="s">
         <v>81</v>
       </c>
+      <c r="B74" t="s">
+        <v>91</v>
+      </c>
       <c r="D74">
         <v>43</v>
       </c>
@@ -2856,6 +2967,9 @@
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>44</v>
+      </c>
+      <c r="B76" t="s">
+        <v>91</v>
       </c>
       <c r="D76">
         <v>44</v>
@@ -2884,6 +2998,9 @@
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>91</v>
       </c>
       <c r="D78">
         <v>44</v>

--- a/buglists/buglist-totaal.xlsx
+++ b/buglists/buglist-totaal.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="95">
   <si>
     <t>naam reviewer</t>
   </si>
@@ -291,6 +291,15 @@
   </si>
   <si>
     <t>Duplicate</t>
+  </si>
+  <si>
+    <t>Accept</t>
+  </si>
+  <si>
+    <t>kan</t>
+  </si>
+  <si>
+    <t>zin loopt niet lekker</t>
   </si>
 </sst>
 </file>
@@ -1788,7 +1797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
@@ -1824,6 +1833,9 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
       <c r="D2">
         <v>1</v>
       </c>
@@ -1889,11 +1901,14 @@
       <c r="A6" t="s">
         <v>19</v>
       </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
         <v>31</v>
@@ -1954,6 +1969,9 @@
       <c r="A10" t="s">
         <v>66</v>
       </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
       <c r="D10">
         <v>3</v>
       </c>
@@ -1968,6 +1986,9 @@
       <c r="A11" t="s">
         <v>68</v>
       </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
       <c r="D11" s="9">
         <v>3</v>
       </c>
@@ -2016,6 +2037,9 @@
       <c r="A14" t="s">
         <v>6</v>
       </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
       <c r="D14">
         <v>4</v>
       </c>
@@ -2046,6 +2070,12 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -2112,6 +2142,9 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
       <c r="D20">
         <v>5</v>
       </c>
@@ -2126,6 +2159,9 @@
       <c r="A21" t="s">
         <v>34</v>
       </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
       <c r="D21">
         <v>5</v>
       </c>
@@ -2140,6 +2176,9 @@
       <c r="A22" t="s">
         <v>44</v>
       </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
       <c r="D22">
         <v>5</v>
       </c>
@@ -2153,6 +2192,9 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -2185,6 +2227,9 @@
       <c r="A25" t="s">
         <v>42</v>
       </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
       <c r="D25">
         <v>6</v>
       </c>
@@ -2233,6 +2278,9 @@
       <c r="A28" t="s">
         <v>19</v>
       </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
       <c r="D28">
         <v>7</v>
       </c>
@@ -2247,6 +2295,9 @@
       <c r="A29" t="s">
         <v>44</v>
       </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
       <c r="D29">
         <v>7</v>
       </c>
@@ -2260,6 +2311,9 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
       </c>
       <c r="D30">
         <v>9</v>
@@ -2275,6 +2329,9 @@
       <c r="A31" t="s">
         <v>34</v>
       </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
       <c r="D31">
         <v>9</v>
       </c>
@@ -2323,6 +2380,9 @@
       <c r="A34" t="s">
         <v>6</v>
       </c>
+      <c r="B34" t="s">
+        <v>92</v>
+      </c>
       <c r="D34">
         <v>11</v>
       </c>
@@ -2354,6 +2414,9 @@
       <c r="A36" t="s">
         <v>34</v>
       </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
       <c r="D36">
         <v>11</v>
       </c>
@@ -2367,6 +2430,12 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" t="s">
+        <v>94</v>
       </c>
       <c r="D37">
         <v>13</v>
@@ -2382,6 +2451,9 @@
       <c r="A38" t="s">
         <v>68</v>
       </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
       <c r="D38" s="9">
         <v>13</v>
       </c>
@@ -2396,6 +2468,9 @@
       <c r="A39" t="s">
         <v>6</v>
       </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
       <c r="D39">
         <v>15</v>
       </c>
@@ -2409,6 +2484,9 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
       </c>
       <c r="D40">
         <v>16</v>
@@ -2424,8 +2502,11 @@
       <c r="A41" t="s">
         <v>68</v>
       </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
       <c r="D41" s="9">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>61</v>
@@ -2438,6 +2519,9 @@
       <c r="A42" t="s">
         <v>66</v>
       </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
       <c r="D42">
         <v>19</v>
       </c>
@@ -2452,6 +2536,9 @@
       <c r="A43" t="s">
         <v>6</v>
       </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
       <c r="D43">
         <v>23</v>
       </c>
@@ -2500,8 +2587,11 @@
       <c r="A46" t="s">
         <v>44</v>
       </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
       <c r="D46">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>18</v>
@@ -2565,6 +2655,9 @@
       <c r="A50" t="s">
         <v>6</v>
       </c>
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
       <c r="D50">
         <v>27</v>
       </c>
@@ -2579,6 +2672,9 @@
       <c r="A51" t="s">
         <v>6</v>
       </c>
+      <c r="B51" t="s">
+        <v>92</v>
+      </c>
       <c r="D51">
         <v>27</v>
       </c>
@@ -2678,6 +2774,9 @@
       <c r="A57" t="s">
         <v>6</v>
       </c>
+      <c r="B57" t="s">
+        <v>92</v>
+      </c>
       <c r="D57">
         <v>31</v>
       </c>
@@ -2743,6 +2842,9 @@
       <c r="A61" t="s">
         <v>68</v>
       </c>
+      <c r="B61" t="s">
+        <v>91</v>
+      </c>
       <c r="D61" s="9">
         <v>31</v>
       </c>
@@ -2774,6 +2876,9 @@
       <c r="A63" t="s">
         <v>6</v>
       </c>
+      <c r="B63" t="s">
+        <v>92</v>
+      </c>
       <c r="D63">
         <v>32</v>
       </c>
@@ -2788,6 +2893,9 @@
       <c r="A64" t="s">
         <v>66</v>
       </c>
+      <c r="B64" t="s">
+        <v>91</v>
+      </c>
       <c r="D64">
         <v>32</v>
       </c>
@@ -2819,6 +2927,9 @@
       <c r="A66" t="s">
         <v>44</v>
       </c>
+      <c r="B66" t="s">
+        <v>92</v>
+      </c>
       <c r="D66">
         <v>33</v>
       </c>
@@ -2833,6 +2944,9 @@
       <c r="A67" t="s">
         <v>44</v>
       </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
       <c r="D67">
         <v>35</v>
       </c>
@@ -2847,6 +2961,9 @@
       <c r="A68" t="s">
         <v>19</v>
       </c>
+      <c r="B68" t="s">
+        <v>92</v>
+      </c>
       <c r="D68">
         <v>40</v>
       </c>
@@ -2861,6 +2978,9 @@
       <c r="A69" t="s">
         <v>19</v>
       </c>
+      <c r="B69" t="s">
+        <v>92</v>
+      </c>
       <c r="D69">
         <v>43</v>
       </c>
@@ -2874,6 +2994,9 @@
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>19</v>
+      </c>
+      <c r="B70" t="s">
+        <v>92</v>
       </c>
       <c r="D70">
         <v>43</v>
@@ -2906,6 +3029,9 @@
       <c r="A72" t="s">
         <v>68</v>
       </c>
+      <c r="B72" t="s">
+        <v>92</v>
+      </c>
       <c r="D72" s="9">
         <v>43</v>
       </c>
@@ -2954,6 +3080,9 @@
       <c r="A75" t="s">
         <v>19</v>
       </c>
+      <c r="B75" t="s">
+        <v>92</v>
+      </c>
       <c r="D75">
         <v>44</v>
       </c>
@@ -2984,6 +3113,9 @@
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>68</v>
+      </c>
+      <c r="B77" t="s">
+        <v>92</v>
       </c>
       <c r="D77" s="9">
         <v>44</v>
